--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H2">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I2">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J2">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N2">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q2">
-        <v>11.55957020972381</v>
+        <v>7.11262449506</v>
       </c>
       <c r="R2">
-        <v>11.55957020972381</v>
+        <v>64.01362045554001</v>
       </c>
       <c r="S2">
-        <v>0.01283555108338706</v>
+        <v>0.004993790771136849</v>
       </c>
       <c r="T2">
-        <v>0.01283555108338706</v>
+        <v>0.004993790771136849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H3">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I3">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J3">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N3">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q3">
-        <v>30.44949114218593</v>
+        <v>13.50848792750956</v>
       </c>
       <c r="R3">
-        <v>30.44949114218593</v>
+        <v>121.576391347586</v>
       </c>
       <c r="S3">
-        <v>0.03381059952297374</v>
+        <v>0.009484341875669581</v>
       </c>
       <c r="T3">
-        <v>0.03381059952297374</v>
+        <v>0.009484341875669577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H4">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I4">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J4">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N4">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q4">
-        <v>126.3745449327253</v>
+        <v>65.10014669792511</v>
       </c>
       <c r="R4">
-        <v>126.3745449327253</v>
+        <v>585.9013202813261</v>
       </c>
       <c r="S4">
-        <v>0.1403241554568614</v>
+        <v>0.04570696962921997</v>
       </c>
       <c r="T4">
-        <v>0.1403241554568614</v>
+        <v>0.04570696962921996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H5">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I5">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J5">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N5">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q5">
-        <v>206.8043047903059</v>
+        <v>92.44006193021133</v>
       </c>
       <c r="R5">
-        <v>206.8043047903059</v>
+        <v>831.960557371902</v>
       </c>
       <c r="S5">
-        <v>0.2296319993080211</v>
+        <v>0.06490238989433872</v>
       </c>
       <c r="T5">
-        <v>0.2296319993080211</v>
+        <v>0.06490238989433871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H6">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I6">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J6">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N6">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q6">
-        <v>228.075693032173</v>
+        <v>101.9032445113729</v>
       </c>
       <c r="R6">
-        <v>228.075693032173</v>
+        <v>917.129200602356</v>
       </c>
       <c r="S6">
-        <v>0.2532513887350928</v>
+        <v>0.07154651315322993</v>
       </c>
       <c r="T6">
-        <v>0.2532513887350928</v>
+        <v>0.07154651315322992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.98528949285184</v>
+        <v>0.8788406666666667</v>
       </c>
       <c r="H7">
-        <v>1.98528949285184</v>
+        <v>2.636522</v>
       </c>
       <c r="I7">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="J7">
-        <v>0.7010106326508772</v>
+        <v>0.2062701535172269</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N7">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q7">
-        <v>28.05963034121881</v>
+        <v>13.72470470252622</v>
       </c>
       <c r="R7">
-        <v>28.05963034121881</v>
+        <v>123.522342322736</v>
       </c>
       <c r="S7">
-        <v>0.03115693854454099</v>
+        <v>0.009636148193631835</v>
       </c>
       <c r="T7">
-        <v>0.03115693854454099</v>
+        <v>0.009636148193631833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H8">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I8">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J8">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N8">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q8">
-        <v>4.930294096629441</v>
+        <v>16.1046927356</v>
       </c>
       <c r="R8">
-        <v>4.930294096629441</v>
+        <v>144.9422346204</v>
       </c>
       <c r="S8">
-        <v>0.005474515106121827</v>
+        <v>0.01130714351796461</v>
       </c>
       <c r="T8">
-        <v>0.005474515106121827</v>
+        <v>0.0113071435179646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H9">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I9">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J9">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N9">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q9">
-        <v>12.98706990830904</v>
+        <v>30.58646601492889</v>
       </c>
       <c r="R9">
-        <v>12.98706990830904</v>
+        <v>275.27819413436</v>
       </c>
       <c r="S9">
-        <v>0.01442062258434109</v>
+        <v>0.02147483138089582</v>
       </c>
       <c r="T9">
-        <v>0.01442062258434109</v>
+        <v>0.02147483138089581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H10">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I10">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J10">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N10">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q10">
-        <v>53.90024555773982</v>
+        <v>147.4023913874178</v>
       </c>
       <c r="R10">
-        <v>53.90024555773982</v>
+        <v>1326.62152248676</v>
       </c>
       <c r="S10">
-        <v>0.05984992025754615</v>
+        <v>0.1034915736470043</v>
       </c>
       <c r="T10">
-        <v>0.05984992025754615</v>
+        <v>0.1034915736470043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H11">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I11">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J11">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N11">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q11">
-        <v>88.20449416082245</v>
+        <v>209.3065358476134</v>
       </c>
       <c r="R11">
-        <v>88.20449416082245</v>
+        <v>1883.75882262852</v>
       </c>
       <c r="S11">
-        <v>0.0979407772127371</v>
+        <v>0.1469546224154518</v>
       </c>
       <c r="T11">
-        <v>0.0979407772127371</v>
+        <v>0.1469546224154517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.846749566733394</v>
+        <v>1.989906666666667</v>
       </c>
       <c r="H12">
-        <v>0.846749566733394</v>
+        <v>5.969720000000001</v>
       </c>
       <c r="I12">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202888</v>
       </c>
       <c r="J12">
-        <v>0.2989893673491228</v>
+        <v>0.4670452440202887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N12">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q12">
-        <v>97.27699408714072</v>
+        <v>230.7334574960622</v>
       </c>
       <c r="R12">
-        <v>97.27699408714072</v>
+        <v>2076.60111746456</v>
       </c>
       <c r="S12">
-        <v>0.1080147275539294</v>
+        <v>0.1619985156585456</v>
       </c>
       <c r="T12">
-        <v>0.1080147275539294</v>
+        <v>0.1619985156585455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.989906666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.969720000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.4670452440202888</v>
+      </c>
+      <c r="J13">
+        <v>0.4670452440202887</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N13">
+        <v>46.850488</v>
+      </c>
+      <c r="O13">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P13">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q13">
+        <v>31.07603280259556</v>
+      </c>
+      <c r="R13">
+        <v>279.68429522336</v>
+      </c>
+      <c r="S13">
+        <v>0.02181855740042672</v>
+      </c>
+      <c r="T13">
+        <v>0.02181855740042671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.437303</v>
+      </c>
+      <c r="I14">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J14">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.09319</v>
+      </c>
+      <c r="N14">
+        <v>24.27957</v>
+      </c>
+      <c r="O14">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P14">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q14">
+        <v>1.17972542219</v>
+      </c>
+      <c r="R14">
+        <v>10.61752879971</v>
+      </c>
+      <c r="S14">
+        <v>0.0008282880573689343</v>
+      </c>
+      <c r="T14">
+        <v>0.0008282880573689342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.437303</v>
+      </c>
+      <c r="I15">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J15">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N15">
+        <v>46.112413</v>
+      </c>
+      <c r="O15">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P15">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q15">
+        <v>2.240566282459889</v>
+      </c>
+      <c r="R15">
+        <v>20.165096542139</v>
+      </c>
+      <c r="S15">
+        <v>0.001573106977774483</v>
+      </c>
+      <c r="T15">
+        <v>0.001573106977774482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.437303</v>
+      </c>
+      <c r="I16">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J16">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N16">
+        <v>222.225083</v>
+      </c>
+      <c r="O16">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P16">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q16">
+        <v>10.79774394123878</v>
+      </c>
+      <c r="R16">
+        <v>97.179695471149</v>
+      </c>
+      <c r="S16">
+        <v>0.007581122000789973</v>
+      </c>
+      <c r="T16">
+        <v>0.007581122000789971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.437303</v>
+      </c>
+      <c r="I17">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J17">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>105.184097</v>
+      </c>
+      <c r="N17">
+        <v>315.552291</v>
+      </c>
+      <c r="O17">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P17">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q17">
+        <v>15.33244039013033</v>
+      </c>
+      <c r="R17">
+        <v>137.991963511173</v>
+      </c>
+      <c r="S17">
+        <v>0.01076494328815159</v>
+      </c>
+      <c r="T17">
+        <v>0.01076494328815158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.437303</v>
+      </c>
+      <c r="I18">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J18">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N18">
+        <v>347.855698</v>
+      </c>
+      <c r="O18">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P18">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q18">
+        <v>16.90203781138822</v>
+      </c>
+      <c r="R18">
+        <v>152.118340302494</v>
+      </c>
+      <c r="S18">
+        <v>0.01186696141410802</v>
+      </c>
+      <c r="T18">
+        <v>0.01186696141410802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1457676666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.437303</v>
+      </c>
+      <c r="I19">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="J19">
+        <v>0.03421270785661711</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N19">
+        <v>46.850488</v>
+      </c>
+      <c r="O19">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P19">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q19">
+        <v>2.276428772651555</v>
+      </c>
+      <c r="R19">
+        <v>20.487858953864</v>
+      </c>
+      <c r="S19">
+        <v>0.001598286118424114</v>
+      </c>
+      <c r="T19">
+        <v>0.001598286118424114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.266402</v>
+      </c>
+      <c r="H20">
+        <v>0.799206</v>
+      </c>
+      <c r="I20">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J20">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.09319</v>
+      </c>
+      <c r="N20">
+        <v>24.27957</v>
+      </c>
+      <c r="O20">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P20">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q20">
+        <v>2.15604200238</v>
+      </c>
+      <c r="R20">
+        <v>19.40437802142</v>
+      </c>
+      <c r="S20">
+        <v>0.001513762277362827</v>
+      </c>
+      <c r="T20">
+        <v>0.001513762277362827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.846749566733394</v>
-      </c>
-      <c r="H13">
-        <v>0.846749566733394</v>
-      </c>
-      <c r="I13">
-        <v>0.2989893673491228</v>
-      </c>
-      <c r="J13">
-        <v>0.2989893673491228</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>14.1337726524264</v>
-      </c>
-      <c r="N13">
-        <v>14.1337726524264</v>
-      </c>
-      <c r="O13">
-        <v>0.0444457431789883</v>
-      </c>
-      <c r="P13">
-        <v>0.0444457431789883</v>
-      </c>
-      <c r="Q13">
-        <v>11.96776586975035</v>
-      </c>
-      <c r="R13">
-        <v>11.96776586975035</v>
-      </c>
-      <c r="S13">
-        <v>0.0132888046344473</v>
-      </c>
-      <c r="T13">
-        <v>0.0132888046344473</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.266402</v>
+      </c>
+      <c r="H21">
+        <v>0.799206</v>
+      </c>
+      <c r="I21">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J21">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N21">
+        <v>46.112413</v>
+      </c>
+      <c r="O21">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P21">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q21">
+        <v>4.094813016008666</v>
+      </c>
+      <c r="R21">
+        <v>36.853317144078</v>
+      </c>
+      <c r="S21">
+        <v>0.002874978070763825</v>
+      </c>
+      <c r="T21">
+        <v>0.002874978070763824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.266402</v>
+      </c>
+      <c r="H22">
+        <v>0.799206</v>
+      </c>
+      <c r="I22">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J22">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N22">
+        <v>222.225083</v>
+      </c>
+      <c r="O22">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P22">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q22">
+        <v>19.73373552045533</v>
+      </c>
+      <c r="R22">
+        <v>177.603619684098</v>
+      </c>
+      <c r="S22">
+        <v>0.01385510318878067</v>
+      </c>
+      <c r="T22">
+        <v>0.01385510318878066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.266402</v>
+      </c>
+      <c r="H23">
+        <v>0.799206</v>
+      </c>
+      <c r="I23">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J23">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>105.184097</v>
+      </c>
+      <c r="N23">
+        <v>315.552291</v>
+      </c>
+      <c r="O23">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P23">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q23">
+        <v>28.021253808994</v>
+      </c>
+      <c r="R23">
+        <v>252.191284280946</v>
+      </c>
+      <c r="S23">
+        <v>0.0196737897191432</v>
+      </c>
+      <c r="T23">
+        <v>0.01967378971914319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.266402</v>
+      </c>
+      <c r="H24">
+        <v>0.799206</v>
+      </c>
+      <c r="I24">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J24">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N24">
+        <v>347.855698</v>
+      </c>
+      <c r="O24">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P24">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q24">
+        <v>30.88981788619866</v>
+      </c>
+      <c r="R24">
+        <v>278.008360975788</v>
+      </c>
+      <c r="S24">
+        <v>0.02168781545958664</v>
+      </c>
+      <c r="T24">
+        <v>0.02168781545958663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.266402</v>
+      </c>
+      <c r="H25">
+        <v>0.799206</v>
+      </c>
+      <c r="I25">
+        <v>0.06252644366778992</v>
+      </c>
+      <c r="J25">
+        <v>0.06252644366778991</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N25">
+        <v>46.850488</v>
+      </c>
+      <c r="O25">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P25">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q25">
+        <v>4.160354568058667</v>
+      </c>
+      <c r="R25">
+        <v>37.443191112528</v>
+      </c>
+      <c r="S25">
+        <v>0.002920994952152769</v>
+      </c>
+      <c r="T25">
+        <v>0.002920994952152769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.068319</v>
+      </c>
+      <c r="H26">
+        <v>0.204957</v>
+      </c>
+      <c r="I26">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J26">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.09319</v>
+      </c>
+      <c r="N26">
+        <v>24.27957</v>
+      </c>
+      <c r="O26">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P26">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q26">
+        <v>0.55291864761</v>
+      </c>
+      <c r="R26">
+        <v>4.97626782849</v>
+      </c>
+      <c r="S26">
+        <v>0.0003882055128232935</v>
+      </c>
+      <c r="T26">
+        <v>0.0003882055128232934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.068319</v>
+      </c>
+      <c r="H27">
+        <v>0.204957</v>
+      </c>
+      <c r="I27">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J27">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N27">
+        <v>46.112413</v>
+      </c>
+      <c r="O27">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P27">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q27">
+        <v>1.050117981249</v>
+      </c>
+      <c r="R27">
+        <v>9.451061831240999</v>
+      </c>
+      <c r="S27">
+        <v>0.0007372903612454629</v>
+      </c>
+      <c r="T27">
+        <v>0.0007372903612454626</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.068319</v>
+      </c>
+      <c r="H28">
+        <v>0.204957</v>
+      </c>
+      <c r="I28">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J28">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N28">
+        <v>222.225083</v>
+      </c>
+      <c r="O28">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P28">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q28">
+        <v>5.060731815159</v>
+      </c>
+      <c r="R28">
+        <v>45.54658633643101</v>
+      </c>
+      <c r="S28">
+        <v>0.003553151983672444</v>
+      </c>
+      <c r="T28">
+        <v>0.003553151983672443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.068319</v>
+      </c>
+      <c r="H29">
+        <v>0.204957</v>
+      </c>
+      <c r="I29">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J29">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>105.184097</v>
+      </c>
+      <c r="N29">
+        <v>315.552291</v>
+      </c>
+      <c r="O29">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P29">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q29">
+        <v>7.186072322943</v>
+      </c>
+      <c r="R29">
+        <v>64.67465090648699</v>
+      </c>
+      <c r="S29">
+        <v>0.005045358667810844</v>
+      </c>
+      <c r="T29">
+        <v>0.005045358667810842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.068319</v>
+      </c>
+      <c r="H30">
+        <v>0.204957</v>
+      </c>
+      <c r="I30">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J30">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N30">
+        <v>347.855698</v>
+      </c>
+      <c r="O30">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P30">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q30">
+        <v>7.921717810553999</v>
+      </c>
+      <c r="R30">
+        <v>71.29546029498599</v>
+      </c>
+      <c r="S30">
+        <v>0.005561857134644258</v>
+      </c>
+      <c r="T30">
+        <v>0.005561857134644257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.068319</v>
+      </c>
+      <c r="H31">
+        <v>0.204957</v>
+      </c>
+      <c r="I31">
+        <v>0.01603495508644733</v>
+      </c>
+      <c r="J31">
+        <v>0.01603495508644732</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N31">
+        <v>46.850488</v>
+      </c>
+      <c r="O31">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P31">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q31">
+        <v>1.066926163224</v>
+      </c>
+      <c r="R31">
+        <v>9.602335469015999</v>
+      </c>
+      <c r="S31">
+        <v>0.0007490914262510233</v>
+      </c>
+      <c r="T31">
+        <v>0.000749091426251023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H32">
+        <v>2.73418</v>
+      </c>
+      <c r="I32">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J32">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.09319</v>
+      </c>
+      <c r="N32">
+        <v>24.27957</v>
+      </c>
+      <c r="O32">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="P32">
+        <v>0.02420995323843489</v>
+      </c>
+      <c r="Q32">
+        <v>7.376079411399999</v>
+      </c>
+      <c r="R32">
+        <v>66.38471470259999</v>
+      </c>
+      <c r="S32">
+        <v>0.005178763101778385</v>
+      </c>
+      <c r="T32">
+        <v>0.005178763101778383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H33">
+        <v>2.73418</v>
+      </c>
+      <c r="I33">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J33">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>15.37080433333333</v>
+      </c>
+      <c r="N33">
+        <v>46.112413</v>
+      </c>
+      <c r="O33">
+        <v>0.04598019497220903</v>
+      </c>
+      <c r="P33">
+        <v>0.04598019497220902</v>
+      </c>
+      <c r="Q33">
+        <v>14.00884859737111</v>
+      </c>
+      <c r="R33">
+        <v>126.07963737634</v>
+      </c>
+      <c r="S33">
+        <v>0.00983564630585986</v>
+      </c>
+      <c r="T33">
+        <v>0.009835646305859857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H34">
+        <v>2.73418</v>
+      </c>
+      <c r="I34">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J34">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>74.07502766666667</v>
+      </c>
+      <c r="N34">
+        <v>222.225083</v>
+      </c>
+      <c r="O34">
+        <v>0.2215878974725382</v>
+      </c>
+      <c r="P34">
+        <v>0.2215878974725381</v>
+      </c>
+      <c r="Q34">
+        <v>67.51148638188222</v>
+      </c>
+      <c r="R34">
+        <v>607.60337743694</v>
+      </c>
+      <c r="S34">
+        <v>0.0473999770230708</v>
+      </c>
+      <c r="T34">
+        <v>0.04739997702307078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H35">
+        <v>2.73418</v>
+      </c>
+      <c r="I35">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J35">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>105.184097</v>
+      </c>
+      <c r="N35">
+        <v>315.552291</v>
+      </c>
+      <c r="O35">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="P35">
+        <v>0.3146475085592949</v>
+      </c>
+      <c r="Q35">
+        <v>95.86408477848666</v>
+      </c>
+      <c r="R35">
+        <v>862.7767630063798</v>
+      </c>
+      <c r="S35">
+        <v>0.06730640457439878</v>
+      </c>
+      <c r="T35">
+        <v>0.06730640457439875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H36">
+        <v>2.73418</v>
+      </c>
+      <c r="I36">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J36">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>115.9518993333333</v>
+      </c>
+      <c r="N36">
+        <v>347.855698</v>
+      </c>
+      <c r="O36">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="P36">
+        <v>0.3468582920662569</v>
+      </c>
+      <c r="Q36">
+        <v>105.6777880397377</v>
+      </c>
+      <c r="R36">
+        <v>951.1000923576398</v>
+      </c>
+      <c r="S36">
+        <v>0.07419662924614254</v>
+      </c>
+      <c r="T36">
+        <v>0.07419662924614251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9113933333333333</v>
+      </c>
+      <c r="H37">
+        <v>2.73418</v>
+      </c>
+      <c r="I37">
+        <v>0.2139104958516301</v>
+      </c>
+      <c r="J37">
+        <v>0.21391049585163</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.61682933333333</v>
+      </c>
+      <c r="N37">
+        <v>46.850488</v>
+      </c>
+      <c r="O37">
+        <v>0.04671615369126616</v>
+      </c>
+      <c r="P37">
+        <v>0.04671615369126615</v>
+      </c>
+      <c r="Q37">
+        <v>14.23307414220444</v>
+      </c>
+      <c r="R37">
+        <v>128.09766727984</v>
+      </c>
+      <c r="S37">
+        <v>0.009993075600379701</v>
+      </c>
+      <c r="T37">
+        <v>0.009993075600379698</v>
       </c>
     </row>
   </sheetData>
